--- a/data/trans_dic/P64D$otros_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$otros_2023-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.004878628200069803</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.007829106510796784</v>
+        <v>0.007829106510796786</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0063237201037457</v>
+        <v>0.006323720103745699</v>
       </c>
     </row>
     <row r="5">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02199099366970401</v>
+        <v>0.02679452192942127</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04768963023344139</v>
+        <v>0.04282536432044132</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02125860312962924</v>
+        <v>0.02357602957215608</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005860177086575069</v>
+        <v>0.005323608694201672</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004799532482279812</v>
+        <v>0.004866758493329006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006794827253743446</v>
+        <v>0.007373432408122272</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02965788011951125</v>
+        <v>0.03260188550252057</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03309300054431576</v>
+        <v>0.03176975403442261</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02563292619770233</v>
+        <v>0.02473593807775502</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001500699010626946</v>
+        <v>0.001972036878962538</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001435811467411642</v>
+        <v>0.001428020829982647</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002755516295919092</v>
+        <v>0.002862201205511711</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.017631265983414</v>
+        <v>0.01706653710978069</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01610333034239074</v>
+        <v>0.01791800390421478</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01290447134698268</v>
+        <v>0.01257839877200547</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006136394007923093</v>
+        <v>0.005330405598715845</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001549731814854439</v>
+        <v>0.00158569940895574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005249095473185056</v>
+        <v>0.005783053409981715</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02670609865995047</v>
+        <v>0.02595820352425593</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02765585545545832</v>
+        <v>0.03371169731071529</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0209056583902541</v>
+        <v>0.02124319534372025</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006673917319321357</v>
+        <v>0.006622374952670834</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004172455053816517</v>
+        <v>0.004565798536417925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006696368376851018</v>
+        <v>0.006783052640194737</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0175237040617466</v>
+        <v>0.01618802804980869</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01556626989789863</v>
+        <v>0.01516524240543184</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01438046614697766</v>
+        <v>0.0143100625820813</v>
       </c>
     </row>
     <row r="19">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3907</v>
+        <v>4761</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8134</v>
+        <v>7304</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7403</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2991</v>
+        <v>2717</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1728</v>
+        <v>1752</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5915</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15137</v>
+        <v>16640</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11917</v>
+        <v>11440</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22313</v>
+        <v>21532</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>933</v>
+        <v>1227</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3060</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10966</v>
+        <v>10615</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7869</v>
+        <v>8755</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14332</v>
+        <v>13970</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3624</v>
+        <v>3148</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5522</v>
+        <v>6084</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15771</v>
+        <v>15329</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12763</v>
+        <v>15558</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21993</v>
+        <v>22348</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12684</v>
+        <v>12586</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6179</v>
+        <v>6761</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>22643</v>
+        <v>22936</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>33305</v>
+        <v>30766</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23050</v>
+        <v>22456</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48625</v>
+        <v>48387</v>
       </c>
     </row>
     <row r="24">
